--- a/other/projet.xlsx
+++ b/other/projet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Membres</t>
   </si>
@@ -84,9 +84,15 @@
     <t xml:space="preserve">WS : Spring boot</t>
   </si>
   <si>
+    <t xml:space="preserve">Partie 2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1449 : crud (all)</t>
   </si>
   <si>
+    <t>Tout</t>
+  </si>
+  <si>
     <t xml:space="preserve">1464 : create Token</t>
   </si>
   <si>
@@ -180,6 +186,12 @@
     <t xml:space="preserve">1464 : encheresById</t>
   </si>
   <si>
+    <t xml:space="preserve">1464 : historique des offres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1464 : getOffreByEnchereId</t>
+  </si>
+  <si>
     <t>Netlify</t>
   </si>
   <si>
@@ -204,7 +216,7 @@
     <t xml:space="preserve">1473 : mes encheres + status</t>
   </si>
   <si>
-    <t xml:space="preserve">1473 : notif</t>
+    <t>notif</t>
   </si>
   <si>
     <t xml:space="preserve">1473 : form recharge compte</t>
@@ -220,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -234,8 +246,14 @@
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="0" tint="0"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +279,20 @@
         <bgColor indexed="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="2"/>
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -270,11 +300,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -288,10 +333,13 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,16 +853,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.421875"/>
+    <col customWidth="1" min="2" max="2" width="21.28125"/>
     <col customWidth="1" min="3" max="3" width="11.7109375"/>
     <col customWidth="1" min="4" max="4" width="11.140625"/>
-    <col customWidth="1" min="5" max="5" width="12.8515625"/>
+    <col customWidth="1" min="5" max="5" width="10.57421875"/>
     <col customWidth="1" min="7" max="7" width="35.57421875"/>
     <col customWidth="1" min="8" max="8" width="26.28125"/>
     <col customWidth="1" min="9" max="9" width="29.7109375"/>
-    <col customWidth="1" min="10" max="10" width="21.421875"/>
+    <col customWidth="1" min="10" max="10" width="9.8515625"/>
     <col customWidth="1" min="11" max="11" width="10.421875"/>
-    <col customWidth="1" min="12" max="12" width="22.8515625"/>
+    <col customWidth="1" min="12" max="12" width="8.7109375"/>
     <col customWidth="1" min="15" max="15" width="9.421875"/>
   </cols>
   <sheetData>
@@ -963,21 +1011,27 @@
       <c r="I13" s="8"/>
     </row>
     <row r="14" ht="14.25">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="14.25">
+      <c r="B15" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="14.25">
@@ -986,7 +1040,7 @@
         <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="14.25">
@@ -995,7 +1049,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="14.25">
@@ -1004,7 +1058,7 @@
         <v>16</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="14.25">
@@ -1013,7 +1067,7 @@
         <v>17</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="14.25">
@@ -1022,7 +1076,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="14.25">
@@ -1030,8 +1084,8 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>30</v>
+      <c r="I21" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="14.25">
@@ -1040,7 +1094,7 @@
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="14.25">
@@ -1049,7 +1103,7 @@
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="14.25">
@@ -1057,8 +1111,8 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I24" t="s">
-        <v>33</v>
+      <c r="I24" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="14.25">
@@ -1066,8 +1120,8 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I25" t="s">
-        <v>34</v>
+      <c r="I25" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="14.25">
@@ -1076,7 +1130,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -1111,7 +1165,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1122,7 +1176,7 @@
         <v>30</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I32" s="5"/>
     </row>
@@ -1132,7 +1186,7 @@
         <v>31</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" ht="14.25">
@@ -1141,7 +1195,7 @@
         <v>32</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" ht="14.25">
@@ -1150,7 +1204,7 @@
         <v>33</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" ht="14.25">
@@ -1159,7 +1213,7 @@
         <v>34</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I36" s="5"/>
     </row>
@@ -1169,7 +1223,7 @@
         <v>35</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" ht="14.25">
@@ -1178,7 +1232,7 @@
         <v>36</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" ht="14.25">
@@ -1187,7 +1241,7 @@
         <v>37</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="14.25">
@@ -1196,7 +1250,7 @@
         <v>38</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -1219,7 +1273,7 @@
         <v>41</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -1230,7 +1284,7 @@
         <v>42</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" ht="14.25">
@@ -1239,7 +1293,7 @@
         <v>43</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" ht="14.25">
@@ -1248,7 +1302,7 @@
         <v>44</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" ht="14.25">
@@ -1257,7 +1311,7 @@
         <v>45</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" ht="14.25">
@@ -1266,7 +1320,7 @@
         <v>46</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="14.25">
@@ -1274,8 +1328,8 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="I49" t="s">
-        <v>50</v>
+      <c r="I49" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="50" ht="14.25">
@@ -1284,7 +1338,7 @@
         <v>48</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" ht="14.25">
@@ -1292,8 +1346,8 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="I51" t="s">
-        <v>52</v>
+      <c r="I51" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="52" ht="14.25">
@@ -1302,7 +1356,7 @@
         <v>50</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" ht="14.25">
@@ -1310,8 +1364,8 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="I53" t="s">
-        <v>54</v>
+      <c r="I53" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="54" ht="14.25">
@@ -1320,22 +1374,32 @@
         <v>52</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" ht="14.25">
       <c r="F55" s="1">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="56" ht="14.25">
       <c r="F56" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
+      <c r="G56" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" ht="14.25">
       <c r="F57" s="1">
@@ -1343,7 +1407,7 @@
         <v>55</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
@@ -1354,7 +1418,7 @@
         <v>56</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" ht="14.25">
@@ -1363,7 +1427,7 @@
         <v>57</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" ht="14.25">
@@ -1372,7 +1436,7 @@
         <v>58</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" ht="14.25">
@@ -1381,7 +1445,7 @@
         <v>59</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" ht="14.25">
@@ -1390,7 +1454,7 @@
         <v>60</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" ht="14.25">
@@ -1399,7 +1463,7 @@
         <v>61</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" ht="14.25">
@@ -1407,8 +1471,8 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="I64" t="s">
-        <v>61</v>
+      <c r="I64" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="65" ht="14.25">
@@ -1417,7 +1481,7 @@
         <v>63</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I65" s="3"/>
     </row>
@@ -1426,8 +1490,8 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="I66" s="6" t="s">
-        <v>63</v>
+      <c r="I66" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="67" ht="14.25">
@@ -1436,7 +1500,7 @@
         <v>65</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" ht="14.25">
@@ -1444,8 +1508,8 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="I68" t="s">
-        <v>65</v>
+      <c r="I68" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="69" ht="14.25">
@@ -1453,8 +1517,8 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="I69" s="3" t="s">
-        <v>66</v>
+      <c r="I69" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="70" ht="14.25">
@@ -1462,6 +1526,11 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
+      <c r="G70" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
     </row>
     <row r="71" ht="14.25">
       <c r="F71" s="1">
@@ -1470,15 +1539,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="G40:I40"/>
     <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G56:I56"/>
     <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G70:I70"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
